--- a/src/main/resources/jxls_templates/uptimeparam.xlsx
+++ b/src/main/resources/jxls_templates/uptimeparam.xlsx
@@ -41,7 +41,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="rows" var="row" lastCell="D3")</t>
+          <t>jx:each(items="rows" var="row" lastCell="E3")</t>
         </r>
       </text>
     </comment>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
